--- a/Design/Excel/Game/Datas/UIEntity.xlsx
+++ b/Design/Excel/Game/Datas/UIEntity.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>加载优先级</t>
+  </si>
+  <si>
+    <t>WidgetTest</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1141,10 +1147,22 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
